--- a/test/fixtures/excel_mda_simple_sample.xlsx
+++ b/test/fixtures/excel_mda_simple_sample.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
   <si>
     <t>N</t>
   </si>
@@ -731,6 +731,21 @@
   </si>
   <si>
     <t>PRF CICAV</t>
+  </si>
+  <si>
+    <t>(10, 4, 3)</t>
+  </si>
+  <si>
+    <t>(3,)</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>[2, 6]</t>
+  </si>
+  <si>
+    <t>[25.0, 2.1, 3]</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2240,7 @@
   <dimension ref="B1:P60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2519,8 +2534,8 @@
       <c r="F16" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="27">
-        <v>1</v>
+      <c r="G16" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>0</v>
@@ -2552,8 +2567,8 @@
       <c r="F17" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="27">
-        <v>1</v>
+      <c r="G17" s="27" t="s">
+        <v>239</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>1</v>
@@ -2587,8 +2602,8 @@
       <c r="F18" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="27">
-        <v>1</v>
+      <c r="G18" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
@@ -2618,9 +2633,7 @@
       <c r="F19" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>209</v>
-      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
         <v>15</v>
@@ -2652,7 +2665,7 @@
         <v>215</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27" t="s">
@@ -2685,7 +2698,7 @@
         <v>216</v>
       </c>
       <c r="G21" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>54</v>
@@ -2722,7 +2735,7 @@
         <v>217</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>54</v>

--- a/test/fixtures/excel_mda_simple_sample.xlsx
+++ b/test/fixtures/excel_mda_simple_sample.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Global State Vector'!$B$13:$P$13</definedName>
     <definedName name="boolchoice">'Internal Process Lists'!$D$5:$D$6</definedName>
     <definedName name="discipline_list">'Global State Vector'!$C$8:$C$11</definedName>
-    <definedName name="global_state_vector">'Global State Vector'!$B$14:$P$24</definedName>
+    <definedName name="global_state_vector">'Global State Vector'!$B$14:$P$25</definedName>
     <definedName name="type_list">'Internal Process Lists'!$C$5:$C$8</definedName>
     <definedName name="unit_list">'Internal Process Lists'!$B$5:$B$123</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="244">
   <si>
     <t>N</t>
   </si>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>[25.0, 2.1, 3]</t>
+  </si>
+  <si>
+    <t>test_string</t>
+  </si>
+  <si>
+    <t>Test String</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>X1</t>
   </si>
 </sst>
 </file>
@@ -2237,10 +2249,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P60"/>
+  <dimension ref="B1:P61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2729,26 +2741,22 @@
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="39" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>54</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H22" s="27"/>
       <c r="I22" s="27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>205</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -2757,62 +2765,93 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="27"/>
+        <v>237</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="I23" s="27" t="s">
         <v>15</v>
       </c>
       <c r="J23" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="38"/>
     </row>
-    <row r="24" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -2824,6 +2863,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2841,12 +2881,12 @@
     <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="6:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="F37" s="2"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
@@ -2916,6 +2956,9 @@
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:P13"/>
@@ -2923,21 +2966,21 @@
   <mergeCells count="4">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
     <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15:I24">
       <formula1>type_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B24">
       <formula1>boolchoice</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C24">
       <formula1>discipline_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H24">
       <formula1>unit_list</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/fixtures/excel_mda_simple_sample.xlsx
+++ b/test/fixtures/excel_mda_simple_sample.xlsx
@@ -22,6 +22,7 @@
     <definedName name="unit_list">'Internal Process Lists'!$B$5:$B$123</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
